--- a/Tasks/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Tasks/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22724"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B03E49-7073-4784-84DB-5FE430C8BA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Statement" sheetId="1" r:id="rId4"/>
-    <sheet name="F01.ECP" sheetId="2" r:id="rId5"/>
-    <sheet name="F01.BVA" sheetId="3" r:id="rId6"/>
-    <sheet name="BBT-TCs" sheetId="4" r:id="rId7"/>
+    <sheet name="Statement" sheetId="1" r:id="rId1"/>
+    <sheet name="BBT-TCs" sheetId="4" r:id="rId2"/>
+    <sheet name="F01.ECP" sheetId="2" r:id="rId3"/>
+    <sheet name="F01.BVA" sheetId="3" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="H18" authorId="0">
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0">
+    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
   <si>
     <t>VVSS, Info Romana, 2019-2020</t>
   </si>
@@ -82,7 +96,7 @@
     <t>Student 2:</t>
   </si>
   <si>
-    <t>Cilean Liliana</t>
+    <t>Cilean Liliana Florina</t>
   </si>
   <si>
     <t>Student 3:</t>
@@ -105,7 +119,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -149,9 +163,178 @@
     </r>
   </si>
   <si>
+    <t>BBT TCs</t>
+  </si>
+  <si>
+    <t>Final        TC No.</t>
+  </si>
+  <si>
+    <t>Req. ID</t>
+  </si>
+  <si>
+    <t>ECP TCs</t>
+  </si>
+  <si>
+    <t>BVA TCs</t>
+  </si>
+  <si>
+    <t>input data</t>
+  </si>
+  <si>
+    <t>output data</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbstractTaskRepository </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NullPointerException thrown</t>
+  </si>
+  <si>
+    <t>OutputStream</t>
+  </si>
+  <si>
+    <t>IndexOutOfBoundsException thrown</t>
+  </si>
+  <si>
+    <t>AbstractTaskRepository has entries</t>
+  </si>
+  <si>
+    <t>Parsed entire list of Tasks</t>
+  </si>
+  <si>
+    <t>AbstractTaskRepository has no entries</t>
+  </si>
+  <si>
+    <t>Tasks list wasn’t parsed</t>
+  </si>
+  <si>
+    <t>Task(“”, Date)</t>
+  </si>
+  <si>
+    <t>RuntimeException</t>
+  </si>
+  <si>
+    <t>Task(“M”, Date)</t>
+  </si>
+  <si>
+    <t>The task has been written</t>
+  </si>
+  <si>
+    <t>Task(“M…123”, Date)</t>
+  </si>
+  <si>
+    <t>Task(“M…12”, Date)</t>
+  </si>
+  <si>
+    <t>Task(“M…1234”, Date)</t>
+  </si>
+  <si>
+    <t>Task(String, currentDate)</t>
+  </si>
+  <si>
+    <t>Task(String, currentDate - 1 day)</t>
+  </si>
+  <si>
+    <t>Task(String, currentDate + 1 day)</t>
+  </si>
+  <si>
+    <t>Task(String, currentDate + 1 year + 1 day)</t>
+  </si>
+  <si>
+    <t>Task(String, currentDate + 1 year)</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Re-testing</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>#TCs to be run</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">#TCs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="23"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">#TCs    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="15"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>failed</t>
+    </r>
+  </si>
+  <si>
+    <t>#Bugs</t>
+  </si>
+  <si>
+    <t>#Fixed Bugs</t>
+  </si>
+  <si>
+    <t>Re-tested</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -192,37 +375,13 @@
     <t>EC</t>
   </si>
   <si>
-    <t>input data</t>
-  </si>
-  <si>
-    <t>output data</t>
-  </si>
-  <si>
     <t>out is OutputStream</t>
   </si>
   <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>out is NULL</t>
   </si>
   <si>
     <t>2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbstractTaskRepository </t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>NullPointerException thrown</t>
   </si>
   <si>
     <r>
@@ -264,22 +423,10 @@
     </r>
   </si>
   <si>
-    <t>OutputStream</t>
-  </si>
-  <si>
-    <t>IndexOutOfBoundsException thrown</t>
-  </si>
-  <si>
     <t>tasks is NULL</t>
   </si>
   <si>
     <t>1,3,5</t>
-  </si>
-  <si>
-    <t>AbstractTaskRepository has entries</t>
-  </si>
-  <si>
-    <t>Parsed entire list of Tasks</t>
   </si>
   <si>
     <t>tasks has entries</t>
@@ -306,12 +453,6 @@
     </r>
   </si>
   <si>
-    <t>AbstractTaskRepository has no entries</t>
-  </si>
-  <si>
-    <t>Tasks list wasn’t parsed</t>
-  </si>
-  <si>
     <t>tasks.size() == 0</t>
   </si>
   <si>
@@ -360,12 +501,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Task(“”, Date)</t>
-  </si>
-  <si>
-    <t>RuntimeException</t>
-  </si>
-  <si>
     <t>03. title = "M", length = 1</t>
   </si>
   <si>
@@ -375,197 +510,63 @@
     <t>04. title = "M…123", length = 30</t>
   </si>
   <si>
-    <t>Task(“M”, Date)</t>
-  </si>
-  <si>
-    <t>The task has been written</t>
-  </si>
-  <si>
     <t>05. title = "M…12", length = 29</t>
   </si>
   <si>
-    <t>Task(“M…123”, Date)</t>
-  </si>
-  <si>
     <t>06. title = "M…1234", length = 31</t>
   </si>
   <si>
-    <t>Task(“M…12”, Date)</t>
-  </si>
-  <si>
     <t xml:space="preserve">date is in [currentDate, currentDate + 1 year] </t>
   </si>
   <si>
     <t>07. date = currentDate</t>
   </si>
   <si>
-    <t>Task(“M…1234”, Date)</t>
-  </si>
-  <si>
     <t>08. date = currentDate - 1 day</t>
   </si>
   <si>
-    <t>Task(String, currentDate)</t>
-  </si>
-  <si>
     <t>09. date = currentDate + 1 day</t>
   </si>
   <si>
-    <t>Task(String, currentDate - 1 day)</t>
-  </si>
-  <si>
     <t>10. date = currentDate + 1 year + 1 day</t>
   </si>
   <si>
-    <t>Task(String, currentDate + 1 day)</t>
-  </si>
-  <si>
     <t>11. date = currentDate + 1 year</t>
   </si>
   <si>
-    <t>Task(String, currentDate + 1 year + 1 day)</t>
-  </si>
-  <si>
     <t>12. date = ?</t>
-  </si>
-  <si>
-    <t>Task(String, currentDate + 1 year)</t>
-  </si>
-  <si>
-    <t>BBT TCs</t>
-  </si>
-  <si>
-    <t>Final        TC No.</t>
-  </si>
-  <si>
-    <t>Req. ID</t>
-  </si>
-  <si>
-    <t>ECP TCs</t>
-  </si>
-  <si>
-    <t>BVA TCs</t>
-  </si>
-  <si>
-    <t>actual result</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>Re-testing</t>
-  </si>
-  <si>
-    <t>Regression Testing</t>
-  </si>
-  <si>
-    <t>#TCs to be run</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">#TCs </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="23"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">#TCs    </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="11"/>
-        <color indexed="15"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>failed</t>
-    </r>
-  </si>
-  <si>
-    <t>#Bugs</t>
-  </si>
-  <si>
-    <t>#Fixed Bugs</t>
-  </si>
-  <si>
-    <t>Re-tested</t>
-  </si>
-  <si>
-    <t>not yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="11"/>
       <name val="Candara"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="15"/>
       <name val="Calibri"/>
@@ -586,7 +587,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="19"/>
       <name val="Calibri"/>
@@ -602,7 +603,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="Calibri"/>
@@ -613,7 +614,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="Calibri"/>
@@ -624,9 +625,14 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -825,292 +831,242 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="102">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,42 +1076,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff993300"/>
-      <rgbColor rgb="ff303030"/>
-      <rgbColor rgb="ffccccff"/>
-      <rgbColor rgb="ff0066cc"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffff99cc"/>
-      <rgbColor rgb="ffccffff"/>
-      <rgbColor rgb="ffce181e"/>
-      <rgbColor rgb="ff33cccc"/>
-      <rgbColor rgb="ffff2600"/>
-      <rgbColor rgb="ffcc99ff"/>
-      <rgbColor rgb="ffffcc00"/>
-      <rgbColor rgb="ff008000"/>
-      <rgbColor rgb="ffffff99"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF303030"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFFF2600"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1287,7 +1286,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1363,7 +1362,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1382,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +1593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1633,9 +1632,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1650,7 +1655,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1658,7 +1663,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1677,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,7 +1708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1755,7 +1760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1781,7 +1786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1807,7 +1812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1833,7 +1838,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1859,7 +1864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1885,7 +1890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1911,7 +1916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1924,9 +1929,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1940,7 +1951,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1959,7 +1970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1989,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2015,7 +2026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2041,7 +2052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2067,7 +2078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2093,7 +2104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2119,7 +2130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2145,7 +2156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2171,7 +2182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2197,7 +2208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2210,75 +2221,84 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
     <col min="1" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.1719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="256" width="7.85156" style="1" customWidth="1"/>
+    <col min="17" max="256" width="7.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" t="s" s="8">
+      <c r="N1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="4"/>
-      <c r="N2" t="s" s="11">
+      <c r="N2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2292,20 +2312,20 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="13"/>
-      <c r="O3" t="s" s="14">
+      <c r="N3" s="7"/>
+      <c r="O3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P3" t="s" s="14">
+      <c r="P3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" t="s" s="15">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2316,20 +2336,20 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="4"/>
-      <c r="N4" t="s" s="14">
+      <c r="N4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s" s="14">
+      <c r="O4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="7">
         <v>232</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2340,20 +2360,20 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="4"/>
-      <c r="N5" t="s" s="14">
+      <c r="N5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O5" t="s" s="14">
+      <c r="O5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="7">
         <v>232</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2364,23 +2384,23 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="4"/>
-      <c r="N6" t="s" s="14">
+      <c r="N6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O6" t="s" s="14">
+      <c r="O6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="7">
         <v>235</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2388,17 +2408,17 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2410,15 +2430,15 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" t="s" s="18">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2430,15 +2450,15 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2450,15 +2470,15 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" t="s" s="15">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2470,15 +2490,15 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" t="s" s="15">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2490,13 +2510,13 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2508,13 +2528,13 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" ht="51" customHeight="1">
+    <row r="14" spans="1:16" ht="51" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" t="s" s="19">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2528,11 +2548,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2552,8 +2572,8 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2561,43 +2581,840 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.83333" defaultRowHeight="15.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="22" customWidth="1"/>
-    <col min="3" max="3" width="31.8516" style="22" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="19.8516" style="22" customWidth="1"/>
-    <col min="6" max="6" width="5.85156" style="22" customWidth="1"/>
-    <col min="7" max="7" width="8" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.8516" style="22" customWidth="1"/>
-    <col min="9" max="9" width="41" style="22" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="22" customWidth="1"/>
-    <col min="11" max="11" width="9.85156" style="22" customWidth="1"/>
-    <col min="12" max="12" width="33.3516" style="22" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="22" customWidth="1"/>
-    <col min="14" max="15" width="9" style="22" customWidth="1"/>
-    <col min="16" max="16" width="29.3516" style="22" customWidth="1"/>
-    <col min="17" max="17" width="5" style="22" customWidth="1"/>
-    <col min="18" max="256" width="7.85156" style="22" customWidth="1"/>
+    <col min="1" max="3" width="9" style="41" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9" style="41" customWidth="1"/>
+    <col min="6" max="6" width="40" style="41" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="9" style="41" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="41" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="41" customWidth="1"/>
+    <col min="15" max="16" width="9" style="41" customWidth="1"/>
+    <col min="17" max="256" width="7.85546875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.45" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="56">
+        <v>1</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="56">
+        <v>1</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="56">
+        <f>B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="56">
+        <v>2</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="56">
+        <f>B7+1</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="56">
+        <v>3</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="56">
+        <f>B8+1</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="56">
+        <v>4</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="56">
+        <f>B9+1</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56">
+        <v>1</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="56">
+        <f>B10+1</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56">
+        <v>3</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="56">
+        <f>B11+1</f>
+        <v>7</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56">
+        <v>4</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="56">
+        <v>8</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56">
+        <v>5</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="56">
+        <v>9</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56">
+        <v>6</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="56">
+        <v>10</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56">
+        <v>7</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="56">
+        <v>11</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56">
+        <v>8</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="56">
+        <v>12</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56">
+        <v>9</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="56">
+        <v>13</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56">
+        <v>10</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="56">
+        <v>14</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56">
+        <v>11</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.45" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.45" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="71"/>
+      <c r="J24" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7">
+        <f>SUM(D26:E26)</f>
+        <v>21</v>
+      </c>
+      <c r="D26" s="50">
+        <v>21</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
+        <v>4</v>
+      </c>
+      <c r="G26" s="59">
+        <v>4</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="78"/>
+      <c r="J26" s="7">
+        <f>SUM(K26:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="7">
+        <f>SUM(O26:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="41" style="16" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="16" customWidth="1"/>
+    <col min="14" max="15" width="9" style="16" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="5" style="16" customWidth="1"/>
+    <col min="18" max="256" width="7.85546875" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
-      <c r="D1" t="s" s="5">
+      <c r="D1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2608,14 +3425,14 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2627,17 +3444,17 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="25">
-        <v>17</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2648,465 +3465,465 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="27">
-        <v>18</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" t="s" s="30">
-        <v>19</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="23"/>
-    </row>
-    <row r="6" ht="15.8" customHeight="1">
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" t="s" s="32">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="32">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="32">
+      <c r="B6" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="32">
+      <c r="J6" s="86"/>
+      <c r="K6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s" s="32">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s" s="34">
-        <v>26</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" t="s" s="32">
-        <v>27</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="36"/>
-    </row>
-    <row r="7" ht="23.2" customHeight="1">
+      <c r="Q6" s="56"/>
+    </row>
+    <row r="7" spans="1:17" ht="23.25" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="37">
+      <c r="B7" s="53">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="38">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="38">
-        <v>28</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="36"/>
-      <c r="I7" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s" s="32">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="7"/>
+      <c r="C7" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="73"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="37">
+      <c r="B8" s="53">
         <v>2</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" t="s" s="38">
-        <v>32</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="36">
+      <c r="C8" s="88"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="56">
         <v>1</v>
       </c>
-      <c r="H8" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="7"/>
+      <c r="H8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="67"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="53">
         <v>3</v>
       </c>
-      <c r="C9" t="s" s="38">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="38">
-        <v>38</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="36">
+      <c r="C9" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="56">
         <v>2</v>
       </c>
-      <c r="H9" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="7"/>
+      <c r="H9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="67"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="37">
+      <c r="B10" s="53">
         <v>4</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" t="s" s="38">
-        <v>42</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="40">
+      <c r="C10" s="88"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
         <v>3</v>
       </c>
-      <c r="H10" t="s" s="41">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s" s="41">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s" s="41">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s" s="42">
-        <v>45</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="7"/>
+      <c r="H10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="90"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="37">
+      <c r="B11" s="53">
         <v>5</v>
       </c>
-      <c r="C11" t="s" s="38">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s" s="38">
-        <v>47</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="40">
+      <c r="C11" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
         <v>4</v>
       </c>
-      <c r="H11" t="s" s="41">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s" s="41">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s" s="42">
-        <v>50</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="7"/>
+      <c r="H11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="90"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="37">
+      <c r="B12" s="53">
         <v>6</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" t="s" s="38">
-        <v>51</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="44">
+      <c r="C12" s="88"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="22">
         <v>5</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="7"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="37">
+      <c r="B13" s="53">
         <v>7</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="44">
+      <c r="C13" s="88"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="22">
         <v>6</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" t="s" s="47">
-        <v>52</v>
-      </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="7"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="91"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="37">
+      <c r="B14" s="53">
         <v>8</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="48">
+      <c r="C14" s="88"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="24">
         <v>7</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="7"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="37">
+      <c r="B15" s="53">
         <v>9</v>
       </c>
-      <c r="C15" t="s" s="38">
-        <v>52</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="48">
+      <c r="C15" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="24">
         <v>8</v>
       </c>
-      <c r="H15" t="s" s="51">
-        <v>52</v>
-      </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="7"/>
+      <c r="H15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="37">
+      <c r="B16" s="53">
         <v>10</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="7"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="37">
+      <c r="B17" s="53">
         <v>11</v>
       </c>
-      <c r="C17" t="s" s="38">
-        <v>52</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="7"/>
+      <c r="C17" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="37">
+      <c r="B18" s="53">
         <v>12</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="7"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1">
+    <row r="19" spans="1:17" ht="14.45" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="37">
+      <c r="B19" s="53">
         <v>13</v>
       </c>
-      <c r="C19" t="s" s="38">
-        <v>52</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="7"/>
+      <c r="C19" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="37">
+      <c r="B20" s="53">
         <v>14</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3120,16 +3937,16 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" t="s" s="18">
-        <v>53</v>
+      <c r="D22" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3143,6 +3960,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
@@ -3154,74 +3989,58 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S31"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:N10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="53" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="53" customWidth="1"/>
-    <col min="3" max="3" width="42.7969" style="53" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="53" customWidth="1"/>
-    <col min="5" max="5" width="7" style="53" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.1797" style="53" customWidth="1"/>
-    <col min="8" max="8" width="9" style="53" customWidth="1"/>
-    <col min="9" max="9" width="10" style="53" customWidth="1"/>
-    <col min="10" max="10" width="10.1719" style="53" customWidth="1"/>
-    <col min="11" max="11" width="35.3516" style="53" customWidth="1"/>
-    <col min="12" max="12" width="18.3516" style="53" customWidth="1"/>
-    <col min="13" max="13" width="7.35156" style="53" customWidth="1"/>
-    <col min="14" max="14" width="22.0391" style="53" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="53" customWidth="1"/>
-    <col min="16" max="16" width="18.1719" style="53" customWidth="1"/>
-    <col min="17" max="17" width="23.3516" style="53" customWidth="1"/>
-    <col min="18" max="18" width="9.35156" style="53" customWidth="1"/>
-    <col min="19" max="19" width="9" style="53" customWidth="1"/>
-    <col min="20" max="256" width="7.85156" style="53" customWidth="1"/>
+    <col min="1" max="1" width="9" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="7" style="27" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9" style="27" customWidth="1"/>
+    <col min="9" max="9" width="10" style="27" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="22" style="27" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="27" customWidth="1"/>
+    <col min="19" max="19" width="9" style="27" customWidth="1"/>
+    <col min="20" max="256" width="7.85546875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:19" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="54"/>
-      <c r="D1" t="s" s="5">
+      <c r="C1" s="28"/>
+      <c r="D1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3234,14 +4053,14 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3255,17 +4074,17 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="25">
-        <v>17</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3278,801 +4097,801 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="55">
-        <v>54</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="4"/>
-      <c r="G5" t="s" s="30">
-        <v>55</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="7"/>
+      <c r="G5" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" t="s" s="38">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s" s="38">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="38">
-        <v>54</v>
-      </c>
-      <c r="E6" s="58"/>
+      <c r="B6" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="30"/>
       <c r="F6" s="4"/>
-      <c r="G6" t="s" s="33">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s" s="33">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s" s="33">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s" s="32">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s" s="34">
-        <v>26</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" t="s" s="34">
-        <v>27</v>
-      </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="7"/>
+      <c r="G6" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="86"/>
+      <c r="M6" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="86"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" ht="15.1" customHeight="1">
+    <row r="7" spans="1:19" ht="15.2" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="37">
+      <c r="B7" s="88">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="59">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s" s="14">
-        <v>62</v>
-      </c>
-      <c r="E7" s="60"/>
+      <c r="C7" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="31"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="36"/>
-      <c r="K7" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s" s="32">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s" s="32">
-        <v>63</v>
-      </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="7"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="73"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" t="s" s="14">
-        <v>64</v>
-      </c>
-      <c r="E8" s="60"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="31"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="36">
+      <c r="G8" s="56">
         <v>1</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="53">
         <v>1</v>
       </c>
-      <c r="I8" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="L8" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="67"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" t="s" s="14">
-        <v>69</v>
-      </c>
-      <c r="E9" s="60"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="48">
+      <c r="G9" s="24">
         <v>2</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="32">
         <v>2</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" t="s" s="63">
-        <v>70</v>
-      </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" t="s" s="14">
-        <v>71</v>
-      </c>
-      <c r="E10" s="60"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="36">
+      <c r="G10" s="56">
         <v>3</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="53">
         <v>3</v>
       </c>
-      <c r="I10" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s" s="65">
-        <v>72</v>
-      </c>
-      <c r="L10" t="s" s="14">
+      <c r="I10" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M10" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="7"/>
+      <c r="L10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" t="s" s="14">
-        <v>74</v>
-      </c>
-      <c r="E11" s="60"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="31"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="36">
+      <c r="G11" s="56">
         <v>4</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="53">
         <v>4</v>
       </c>
-      <c r="I11" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s" s="65">
-        <v>75</v>
-      </c>
-      <c r="L11" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="98"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" t="s" s="14">
-        <v>76</v>
-      </c>
-      <c r="E12" s="60"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="31"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="36">
+      <c r="G12" s="56">
         <v>5</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="53">
         <v>5</v>
       </c>
-      <c r="I12" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s" s="65">
-        <v>77</v>
-      </c>
-      <c r="L12" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M12" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="98"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:19" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="37">
+      <c r="B13" s="88">
         <v>2</v>
       </c>
-      <c r="C13" t="s" s="59">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s" s="14">
-        <v>79</v>
-      </c>
-      <c r="E13" s="60"/>
+      <c r="C13" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="31"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="36">
+      <c r="G13" s="56">
         <v>6</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="53">
         <v>6</v>
       </c>
-      <c r="I13" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s" s="65">
-        <v>80</v>
-      </c>
-      <c r="L13" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M13" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="98"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:19" ht="15" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="67"/>
-      <c r="D14" t="s" s="14">
-        <v>81</v>
-      </c>
-      <c r="E14" s="60"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="36">
+      <c r="G14" s="56">
         <v>7</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="53">
         <v>7</v>
       </c>
-      <c r="I14" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J14" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K14" t="s" s="14">
-        <v>82</v>
-      </c>
-      <c r="L14" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M14" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="67"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:19" ht="15" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="67"/>
-      <c r="D15" t="s" s="14">
-        <v>83</v>
-      </c>
-      <c r="E15" s="60"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="31"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="36">
+      <c r="G15" s="56">
         <v>8</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="53">
         <v>8</v>
       </c>
-      <c r="I15" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s" s="14">
-        <v>84</v>
-      </c>
-      <c r="L15" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M15" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N15" s="66"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="98"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="67"/>
-      <c r="D16" t="s" s="14">
-        <v>85</v>
-      </c>
-      <c r="E16" s="60"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="36">
+      <c r="G16" s="56">
         <v>9</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="56">
         <v>9</v>
       </c>
-      <c r="I16" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J16" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K16" t="s" s="14">
-        <v>86</v>
-      </c>
-      <c r="L16" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M16" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N16" s="66"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="98"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:19" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="67"/>
-      <c r="D17" t="s" s="14">
-        <v>87</v>
-      </c>
-      <c r="E17" s="60"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="31"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="36">
+      <c r="G17" s="56">
         <v>10</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="56">
         <v>10</v>
       </c>
-      <c r="I17" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s" s="14">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M17" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N17" s="66"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="98"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:19" ht="15" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="67"/>
-      <c r="D18" t="s" s="14">
-        <v>89</v>
-      </c>
-      <c r="E18" s="60"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="31"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="36">
+      <c r="G18" s="56">
         <v>11</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="56">
         <v>11</v>
       </c>
-      <c r="I18" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="J18" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="K18" t="s" s="14">
-        <v>90</v>
-      </c>
-      <c r="L18" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="M18" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="N18" s="66"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="98"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:19" ht="15" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="69"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="70">
+      <c r="G19" s="38">
         <v>12</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="38">
         <v>12</v>
       </c>
-      <c r="I19" t="s" s="71">
-        <v>65</v>
-      </c>
-      <c r="J19" t="s" s="71">
-        <v>70</v>
-      </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1">
+    <row r="20" spans="1:19" ht="14.45" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="69"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="37"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:19" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="69"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:19" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="69"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:19" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="69"/>
+      <c r="O23" s="37"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:19" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="69"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:19" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="69"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" ht="14.4" customHeight="1">
+    <row r="26" spans="1:19" ht="14.45" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="69"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:19" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="69"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="69"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4082,6 +4901,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:D5"/>
@@ -4093,552 +4928,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="9" style="74" customWidth="1"/>
-    <col min="6" max="6" width="12.1719" style="74" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="74" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="74" customWidth="1"/>
-    <col min="9" max="9" width="13.1719" style="74" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="74" customWidth="1"/>
-    <col min="11" max="11" width="9" style="74" customWidth="1"/>
-    <col min="12" max="12" width="9.85156" style="74" customWidth="1"/>
-    <col min="13" max="13" width="30.3516" style="74" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="74" customWidth="1"/>
-    <col min="15" max="16" width="9" style="74" customWidth="1"/>
-    <col min="17" max="256" width="7.85156" style="74" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="54"/>
-      <c r="D1" t="s" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="75">
-        <v>91</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s" s="33">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s" s="33">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s" s="32">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s" s="32">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s" s="32">
-        <v>26</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" t="s" s="32">
-        <v>27</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s" s="32">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s" s="32">
-        <v>96</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="36">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="77">
-        <v>97</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="36">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="36">
-        <f>B7+1</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="36">
-        <f>B8+1</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="36">
-        <f>B9+1</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="36">
-        <f>B10+1</f>
-        <v>6</v>
-      </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="36">
-        <f>B11+1</f>
-        <v>7</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="36">
-        <f>B12+1</f>
-        <v>8</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s" s="84">
-        <v>98</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="89"/>
-      <c r="C17" t="s" s="32">
-        <v>99</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" t="s" s="32">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s" s="32">
-        <v>101</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" t="s" s="32">
-        <v>102</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-    </row>
-    <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s" s="33">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s" s="33">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s" s="33">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s" s="33">
-        <v>106</v>
-      </c>
-      <c r="G18" t="s" s="33">
-        <v>107</v>
-      </c>
-      <c r="H18" t="s" s="33">
-        <v>108</v>
-      </c>
-      <c r="I18" s="39"/>
-      <c r="J18" t="s" s="33">
-        <v>103</v>
-      </c>
-      <c r="K18" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="L18" t="s" s="33">
-        <v>105</v>
-      </c>
-      <c r="M18" t="s" s="32">
-        <v>108</v>
-      </c>
-      <c r="N18" t="s" s="33">
-        <v>103</v>
-      </c>
-      <c r="O18" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="P18" t="s" s="33">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s" s="90">
-        <v>97</v>
-      </c>
-      <c r="C20" s="13">
-        <f>SUM(D20:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
-      <c r="H20" t="s" s="93">
-        <v>109</v>
-      </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="13">
-        <f>SUM(K20:L20)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" t="s" s="93">
-        <v>109</v>
-      </c>
-      <c r="N20" s="13">
-        <f>SUM(O20:P20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H20:I20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Tasks/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Tasks/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22724"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B03E49-7073-4784-84DB-5FE430C8BA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{571298D2-9EC8-4F3E-9AA1-FFB7AB7F8393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2584,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="14.45" customHeight="1"/>
@@ -3304,10 +3304,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="50">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E26" s="50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="50">
         <v>4</v>
